--- a/Смета/МатериалыИОборудование/CostingsMaterial.xlsx
+++ b/Смета/МатериалыИОборудование/CostingsMaterial.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Смета</t>
   </si>
@@ -40,13 +40,64 @@
   </si>
   <si>
     <t>сумма</t>
+  </si>
+  <si>
+    <t>Батареи Molicel 18650</t>
+  </si>
+  <si>
+    <t>yandexmarket</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Сервоприводы Suprass Hobby SJ0015H</t>
+  </si>
+  <si>
+    <t>aliexpress</t>
+  </si>
+  <si>
+    <t>Воздушный винт</t>
+  </si>
+  <si>
+    <t>Компасс Matek MQ10-5883</t>
+  </si>
+  <si>
+    <t>banggood</t>
+  </si>
+  <si>
+    <t>Мотор</t>
+  </si>
+  <si>
+    <t>Пенопласт</t>
+  </si>
+  <si>
+    <t>Трубки углепластиковые</t>
+  </si>
+  <si>
+    <t>Лыжные палки</t>
+  </si>
+  <si>
+    <t>Комменарии</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Клей</t>
+  </si>
+  <si>
+    <t>Нихромовая проволока</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +109,23 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -90,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -114,32 +182,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,35 +617,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -489,310 +673,428 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>679</v>
+      </c>
+      <c r="G3" s="20">
+        <f>F3*E3</f>
+        <v>10864</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1779</v>
+      </c>
+      <c r="G4" s="20">
+        <f>F4*E4</f>
+        <v>10674</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4">
+        <v>1820</v>
+      </c>
+      <c r="G5" s="20">
+        <f>F5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>489</v>
+      </c>
+      <c r="G6" s="20">
+        <f>F6*E6</f>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3387</v>
+      </c>
+      <c r="G7" s="20">
+        <f>F7*E7</f>
+        <v>3387</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4">
+        <v>3373</v>
+      </c>
+      <c r="G8" s="20">
+        <f>F8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>23</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>26</v>
+      <c r="A28" s="3">
+        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="22">
+        <f>SUM(G3:G28)</f>
+        <v>25903</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A29:F29"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Смета/МатериалыИОборудование/CostingsMaterial.xlsx
+++ b/Смета/МатериалыИОборудование/CostingsMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Смета</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Нихромовая проволока</t>
+  </si>
+  <si>
+    <t>ozon</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +134,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -249,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,37 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,16 +310,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
@@ -644,12 +708,12 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -673,428 +737,513 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="21">
+        <v>16</v>
+      </c>
+      <c r="F3" s="22">
+        <v>778</v>
+      </c>
+      <c r="G3" s="31">
+        <f>F3*E3</f>
+        <v>12448</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27">
+        <v>679</v>
+      </c>
+      <c r="G4" s="31">
+        <f>F4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="21">
+        <v>6</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1779</v>
+      </c>
+      <c r="G5" s="31">
+        <f>F5*E5</f>
+        <v>10674</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27">
+        <v>1820</v>
+      </c>
+      <c r="G6" s="31">
+        <f>F6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2</v>
+      </c>
+      <c r="F7" s="27">
+        <v>489</v>
+      </c>
+      <c r="G7" s="31">
+        <f>F7*E7</f>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
+        <v>3387</v>
+      </c>
+      <c r="G8" s="31">
+        <f>F8*E8</f>
+        <v>3387</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27">
+        <v>3373</v>
+      </c>
+      <c r="G9" s="31">
+        <f>F9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4">
-        <v>679</v>
-      </c>
-      <c r="G3" s="20">
-        <f>F3*E3</f>
-        <v>10864</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="31">
+        <f t="shared" ref="G10:G29" si="0">F10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1779</v>
-      </c>
-      <c r="G4" s="20">
-        <f>F4*E4</f>
-        <v>10674</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4">
-        <v>1820</v>
-      </c>
-      <c r="G5" s="20">
-        <f>F5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>489</v>
-      </c>
-      <c r="G6" s="20">
-        <f>F6*E6</f>
-        <v>978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3387</v>
-      </c>
-      <c r="G7" s="20">
-        <f>F7*E7</f>
-        <v>3387</v>
-      </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4">
-        <v>3373</v>
-      </c>
-      <c r="G8" s="20">
-        <f>F8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>18</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>19</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>20</v>
+      <c r="G23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>19</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>21</v>
+      <c r="G24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>20</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>23</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="G28" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="22">
-        <f>SUM(G3:G28)</f>
-        <v>25903</v>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="9">
+        <f>SUM(G3:G29)</f>
+        <v>27487</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Смета/МатериалыИОборудование/CostingsMaterial.xlsx
+++ b/Смета/МатериалыИОборудование/CostingsMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Смета</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ozon</t>
+  </si>
+  <si>
+    <t>Регулятор оборотов</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,9 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,6 +313,69 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,61 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,21 +708,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="I1" s="10" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -737,218 +746,234 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="22">
         <v>16</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="10">
         <v>778</v>
       </c>
-      <c r="G3" s="31">
-        <f>F3*E3</f>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G9" si="0">F3*E3</f>
         <v>12448</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27">
+      <c r="D4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="12">
         <v>679</v>
       </c>
-      <c r="G4" s="31">
-        <f>F4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>6</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="12">
         <v>1779</v>
       </c>
-      <c r="G5" s="31">
-        <f>F5*E5</f>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
         <v>10674</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="27">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="12">
         <v>1820</v>
       </c>
-      <c r="G6" s="31">
-        <f>F6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="12">
         <v>489</v>
       </c>
-      <c r="G7" s="31">
-        <f>F7*E7</f>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
         <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="12">
         <v>3387</v>
       </c>
-      <c r="G8" s="31">
-        <f>F8*E8</f>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
         <v>3387</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="27">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="12">
         <v>3373</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="16">
         <f>F9*E9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="31">
-        <f t="shared" ref="G10:G29" si="0">F10*E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="C10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3085</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" ref="G10:G30" si="1">F10*E10</f>
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2582</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="1"/>
+        <v>2582</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="31">
-        <f t="shared" si="0"/>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -956,164 +981,174 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="D14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="31">
-        <f t="shared" si="0"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="31">
-        <f t="shared" si="0"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="31">
-        <f t="shared" si="0"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="9">
         <v>14</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="31">
-        <f t="shared" si="0"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="9">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="31">
-        <f t="shared" si="0"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="9">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31">
-        <f t="shared" si="0"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="9">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="31">
-        <f t="shared" si="0"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="9">
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="31">
-        <f t="shared" si="0"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="9">
         <v>19</v>
       </c>
       <c r="B24" s="4"/>
@@ -1121,13 +1156,13 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="31">
-        <f t="shared" si="0"/>
+      <c r="G24" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>20</v>
       </c>
       <c r="B25" s="4"/>
@@ -1135,13 +1170,13 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="31">
-        <f t="shared" si="0"/>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="9">
         <v>21</v>
       </c>
       <c r="B26" s="4"/>
@@ -1149,13 +1184,13 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="31">
-        <f t="shared" si="0"/>
+      <c r="G26" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="9">
         <v>22</v>
       </c>
       <c r="B27" s="4"/>
@@ -1163,27 +1198,27 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="31">
-        <f t="shared" si="0"/>
+      <c r="G27" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="9">
         <v>23</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="31">
-        <f t="shared" si="0"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="9">
         <v>24</v>
       </c>
       <c r="B29" s="1"/>
@@ -1191,39 +1226,41 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="G29" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="9">
-        <f>SUM(G3:G29)</f>
-        <v>27487</v>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="8">
+        <f>SUM(G3:G30)</f>
+        <v>33154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
@@ -1232,6 +1269,18 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I6:L6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -1241,9 +1290,11 @@
     <hyperlink ref="C9" r:id="rId5"/>
     <hyperlink ref="C5" r:id="rId6"/>
     <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
